--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gip-Dpp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gip-Dpp4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Gip</t>
+  </si>
+  <si>
+    <t>Dpp4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gip</t>
-  </si>
-  <si>
-    <t>Dpp4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2440396666666667</v>
+        <v>0.01348466666666667</v>
       </c>
       <c r="H2">
-        <v>0.732119</v>
+        <v>0.040454</v>
       </c>
       <c r="I2">
-        <v>0.5984434824403371</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5984434824403371</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3903613333333333</v>
+        <v>17.65118333333333</v>
       </c>
       <c r="N2">
-        <v>1.171084</v>
+        <v>52.95355</v>
       </c>
       <c r="O2">
-        <v>0.02153110434912555</v>
+        <v>0.9920541694580957</v>
       </c>
       <c r="P2">
-        <v>0.02153110434912555</v>
+        <v>0.9920541694580957</v>
       </c>
       <c r="Q2">
-        <v>0.09526364966622222</v>
+        <v>0.2380203235222222</v>
       </c>
       <c r="R2">
-        <v>0.8573728469959999</v>
+        <v>2.1421829117</v>
       </c>
       <c r="S2">
-        <v>0.01288514906747698</v>
+        <v>0.9920541694580957</v>
       </c>
       <c r="T2">
-        <v>0.01288514906747698</v>
+        <v>0.9920541694580957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,294 +596,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2440396666666667</v>
+        <v>0.01348466666666667</v>
       </c>
       <c r="H3">
-        <v>0.732119</v>
+        <v>0.040454</v>
       </c>
       <c r="I3">
-        <v>0.5984434824403371</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5984434824403371</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>17.65118333333333</v>
+        <v>0.1413766666666667</v>
       </c>
       <c r="N3">
-        <v>52.95355</v>
+        <v>0.42413</v>
       </c>
       <c r="O3">
-        <v>0.9735837998868033</v>
+        <v>0.007945830541904408</v>
       </c>
       <c r="P3">
-        <v>0.9735837998868034</v>
+        <v>0.007945830541904408</v>
       </c>
       <c r="Q3">
-        <v>4.307588896938888</v>
+        <v>0.001906417224444444</v>
       </c>
       <c r="R3">
-        <v>38.76830007245</v>
+        <v>0.01715775502</v>
       </c>
       <c r="S3">
-        <v>0.5826348796517549</v>
+        <v>0.007945830541904408</v>
       </c>
       <c r="T3">
-        <v>0.5826348796517549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.2440396666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.732119</v>
-      </c>
-      <c r="I4">
-        <v>0.5984434824403371</v>
-      </c>
-      <c r="J4">
-        <v>0.5984434824403371</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.08856733333333335</v>
-      </c>
-      <c r="N4">
-        <v>0.265702</v>
-      </c>
-      <c r="O4">
-        <v>0.004885095764071029</v>
-      </c>
-      <c r="P4">
-        <v>0.00488509576407103</v>
-      </c>
-      <c r="Q4">
-        <v>0.02161394250422222</v>
-      </c>
-      <c r="R4">
-        <v>0.194525482538</v>
-      </c>
-      <c r="S4">
-        <v>0.002923453721105206</v>
-      </c>
-      <c r="T4">
-        <v>0.002923453721105207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.163751</v>
-      </c>
-      <c r="H5">
-        <v>0.491253</v>
-      </c>
-      <c r="I5">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="J5">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.3903613333333333</v>
-      </c>
-      <c r="N5">
-        <v>1.171084</v>
-      </c>
-      <c r="O5">
-        <v>0.02153110434912555</v>
-      </c>
-      <c r="P5">
-        <v>0.02153110434912555</v>
-      </c>
-      <c r="Q5">
-        <v>0.06392205869466668</v>
-      </c>
-      <c r="R5">
-        <v>0.575298528252</v>
-      </c>
-      <c r="S5">
-        <v>0.008645955281648571</v>
-      </c>
-      <c r="T5">
-        <v>0.008645955281648569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.163751</v>
-      </c>
-      <c r="H6">
-        <v>0.491253</v>
-      </c>
-      <c r="I6">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="J6">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>17.65118333333333</v>
-      </c>
-      <c r="N6">
-        <v>52.95355</v>
-      </c>
-      <c r="O6">
-        <v>0.9735837998868033</v>
-      </c>
-      <c r="P6">
-        <v>0.9735837998868034</v>
-      </c>
-      <c r="Q6">
-        <v>2.890398922016667</v>
-      </c>
-      <c r="R6">
-        <v>26.01359029815</v>
-      </c>
-      <c r="S6">
-        <v>0.3909489202350486</v>
-      </c>
-      <c r="T6">
-        <v>0.3909489202350486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.163751</v>
-      </c>
-      <c r="H7">
-        <v>0.491253</v>
-      </c>
-      <c r="I7">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="J7">
-        <v>0.401556517559663</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.08856733333333335</v>
-      </c>
-      <c r="N7">
-        <v>0.265702</v>
-      </c>
-      <c r="O7">
-        <v>0.004885095764071029</v>
-      </c>
-      <c r="P7">
-        <v>0.00488509576407103</v>
-      </c>
-      <c r="Q7">
-        <v>0.01450298940066667</v>
-      </c>
-      <c r="R7">
-        <v>0.130526904606</v>
-      </c>
-      <c r="S7">
-        <v>0.001961642042965824</v>
-      </c>
-      <c r="T7">
-        <v>0.001961642042965824</v>
+        <v>0.007945830541904408</v>
       </c>
     </row>
   </sheetData>
